--- a/ch-1/starbuzz-transactions.xlsx
+++ b/ch-1/starbuzz-transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hf-da-resources\ch-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{148FDCD0-2658-48F0-B80E-5138607249D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADB8ADB-BC2A-41E9-AB34-1C9880365AE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="14586" xr2:uid="{D1EC90F3-ECD5-474F-AAF6-F0F591754710}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{D1EC90F3-ECD5-474F-AAF6-F0F591754710}"/>
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>order_id</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Filed under: long waits</t>
+  </si>
+  <si>
+    <t>Vanilla Latte</t>
+  </si>
+  <si>
+    <t>Dark Chocolate Mocha</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.85"/>
@@ -560,7 +566,7 @@
         <v>404537</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>4.75</v>
@@ -574,7 +580,7 @@
         <v>938128</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>4.1500000000000004</v>
